--- a/BOM_REDLINES.xlsx
+++ b/BOM_REDLINES.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="340">
   <si>
     <t xml:space="preserve">assembly_no</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">QTY_DIFF</t>
   </si>
   <si>
-    <t xml:space="preserve">WRAITH.001.Z1</t>
+    <t xml:space="preserve">WRAITH.001.Z2</t>
   </si>
   <si>
     <t xml:space="preserve">ASSY,PCB,SPECTER,WRAITH</t>
@@ -191,7 +191,13 @@
     <t xml:space="preserve">TSM-103-01-x-DV</t>
   </si>
   <si>
-    <t xml:space="preserve">JP1, JP5, JP2</t>
+    <t xml:space="preserve">CONN,HEADER,SM,3x2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CHANGE – 11/1/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1, JP5</t>
   </si>
   <si>
     <t xml:space="preserve">TSM-102-01-x-SV</t>
@@ -200,8 +206,7 @@
     <t xml:space="preserve">CONN,HEADER,SM,2P</t>
   </si>
   <si>
-    <t xml:space="preserve">DEL JP1, JP5
-ADD JP2</t>
+    <t xml:space="preserve">DEL JP1, JP5</t>
   </si>
   <si>
     <t xml:space="preserve">TP1, TP2, TP3, TP4, TP5, TP6, TP7</t>
@@ -1071,6 +1076,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1092,6 +1098,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1154,7 +1161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1179,10 +1186,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1191,15 +1194,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,11 +1300,11 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.74"/>
@@ -1319,9 +1318,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="22.28"/>
   </cols>
   <sheetData>
@@ -1456,16 +1455,16 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="n">
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1498,16 +1497,16 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1540,7 +1539,7 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K5,",",J5)</f>
         <v>RES,0603R,[N/A]</v>
       </c>
@@ -1580,13 +1579,13 @@
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -1619,16 +1618,16 @@
       <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="n">
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1667,13 +1666,13 @@
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -1709,12 +1708,17 @@
       <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -1731,12 +1735,15 @@
       <c r="M9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="R9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="S9" s="5" t="n">
         <f aca="false">G9-I9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1746,38 +1753,38 @@
       <c r="C10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="n">
-        <v>1</v>
+      <c r="H10" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S10" s="5" t="n">
         <f aca="false">G10-I10</f>
@@ -1795,13 +1802,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>7</v>
@@ -1813,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S11" s="5" t="n">
         <f aca="false">G11-I11</f>
@@ -1834,28 +1841,28 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S12" s="5" t="n">
         <f aca="false">G12-I12</f>
@@ -1873,32 +1880,32 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="S13" s="5" t="n">
         <f aca="false">G13-I13</f>
@@ -1916,37 +1923,37 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S14" s="5" t="n">
         <f aca="false">G14-I14</f>
@@ -1964,34 +1971,34 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S15" s="5" t="n">
         <f aca="false">G15-I15</f>
@@ -2009,37 +2016,37 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>84</v>
+      <c r="R16" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="S16" s="5" t="n">
         <f aca="false">G16-I16</f>
@@ -2057,31 +2064,31 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="n">
+      <c r="H17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S17" s="5" t="n">
         <f aca="false">G17-I17</f>
@@ -2099,34 +2106,34 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S18" s="5" t="n">
         <f aca="false">G18-I18</f>
@@ -2144,34 +2151,34 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="n">
+      <c r="H19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S19" s="5" t="n">
         <f aca="false">G19-I19</f>
@@ -2189,31 +2196,31 @@
         <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="n">
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S20" s="5" t="n">
         <f aca="false">G20-I20</f>
@@ -2231,37 +2238,37 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="n">
+      <c r="H21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" s="7" t="s">
         <v>102</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="S21" s="5" t="n">
         <f aca="false">G21-I21</f>
@@ -2279,31 +2286,31 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="n">
+      <c r="H22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S22" s="5" t="n">
         <f aca="false">G22-I22</f>
@@ -2321,28 +2328,28 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>108</v>
+      <c r="F23" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="7" t="n">
         <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S23" s="5" t="n">
         <f aca="false">G23-I23</f>
@@ -2360,13 +2367,13 @@
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>112</v>
+        <v>62</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>4</v>
@@ -2378,10 +2385,10 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S24" s="5" t="n">
         <f aca="false">G24-I24</f>
@@ -2399,34 +2406,34 @@
         <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="S25" s="5" t="n">
         <f aca="false">G25-I25</f>
@@ -2444,34 +2451,34 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="7" t="n">
+      <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="R26" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S26" s="5" t="n">
         <f aca="false">G26-I26</f>
@@ -2489,28 +2496,28 @@
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>108</v>
+      <c r="F27" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S27" s="5" t="n">
         <f aca="false">G27-I27</f>
@@ -2528,28 +2535,28 @@
         <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S28" s="5" t="n">
         <f aca="false">G28-I28</f>
@@ -2567,40 +2574,40 @@
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S29" s="5" t="n">
         <f aca="false">G29-I29</f>
@@ -2618,34 +2625,34 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S30" s="5" t="n">
         <f aca="false">G30-I30</f>
@@ -2663,37 +2670,37 @@
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>73</v>
+        <v>146</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S31" s="5" t="n">
         <f aca="false">G31-I31</f>
@@ -2711,47 +2718,47 @@
         <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="O32" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S32" s="5" t="n">
         <f aca="false">G32-I32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -2762,44 +2769,44 @@
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="S33" s="5" t="n">
         <f aca="false">G33-I33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="147.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -2810,31 +2817,31 @@
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6" t="n">
+      <c r="H34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="S34" s="5" t="n">
         <f aca="false">G34-I34</f>
@@ -2852,34 +2859,34 @@
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="n">
+      <c r="H35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S35" s="5" t="n">
         <f aca="false">G35-I35</f>
@@ -2897,13 +2904,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>73</v>
+        <v>170</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>1</v>
@@ -2912,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S36" s="5" t="n">
         <f aca="false">G36-I36</f>
@@ -2939,34 +2946,34 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S37" s="5" t="n">
         <f aca="false">G37-I37</f>
@@ -2984,21 +2991,21 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I38" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="5" t="n">
@@ -3017,31 +3024,31 @@
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S39" s="5" t="n">
         <f aca="false">G39-I39</f>
@@ -3059,34 +3066,34 @@
         <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="R40" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S40" s="5" t="n">
         <f aca="false">G40-I40</f>
@@ -3104,28 +3111,28 @@
         <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>108</v>
+        <v>185</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="n">
+      <c r="H41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S41" s="5" t="n">
         <f aca="false">G41-I41</f>
@@ -3143,31 +3150,31 @@
         <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>108</v>
+      <c r="F42" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H42" s="7" t="n">
+      <c r="H42" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="8" t="n">
+      <c r="I42" s="7" t="n">
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="S42" s="5" t="n">
         <f aca="false">G42-I42</f>
@@ -3185,43 +3192,43 @@
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="R43" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S43" s="5" t="n">
         <f aca="false">G43-I43</f>
@@ -3239,40 +3246,40 @@
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="S44" s="5" t="n">
         <f aca="false">G44-I44</f>
@@ -3290,34 +3297,34 @@
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="7" t="n">
+      <c r="H45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S45" s="5" t="n">
         <f aca="false">G45-I45</f>
@@ -3335,31 +3342,31 @@
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S46" s="5" t="n">
         <f aca="false">G46-I46</f>
@@ -3377,31 +3384,31 @@
         <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>73</v>
+        <v>211</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S47" s="5" t="n">
         <f aca="false">G47-I47</f>
@@ -3419,31 +3426,31 @@
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>127</v>
+        <v>62</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="H48" s="7" t="n">
+      <c r="H48" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>11</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S48" s="5" t="n">
         <f aca="false">G48-I48</f>
@@ -3461,28 +3468,28 @@
         <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>108</v>
+      <c r="F49" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="8" t="n">
+      <c r="H49" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S49" s="5" t="n">
         <f aca="false">G49-I49</f>
@@ -3500,28 +3507,28 @@
         <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H50" s="8" t="n">
+      <c r="H50" s="7" t="n">
         <v>3</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S50" s="5" t="n">
         <f aca="false">G50-I50</f>
@@ -3539,28 +3546,28 @@
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>221</v>
+      <c r="F51" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H51" s="8" t="n">
+      <c r="H51" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="S51" s="5" t="n">
         <f aca="false">G51-I51</f>
@@ -3578,34 +3585,34 @@
         <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>206</v>
+        <v>228</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8" t="n">
+      <c r="H52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7" t="n">
         <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S52" s="5" t="n">
         <f aca="false">G52-I52</f>
@@ -3623,18 +3630,18 @@
         <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>475900001</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="8" t="n">
+      <c r="H53" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="n">
@@ -3644,10 +3651,10 @@
         <v>475900001</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M53" s="1" t="n">
         <v>475900001</v>
@@ -3668,34 +3675,34 @@
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="8" t="n">
+      <c r="H54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7" t="n">
         <v>2</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>9013</v>
       </c>
       <c r="K54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="R54" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S54" s="5" t="n">
         <f aca="false">G54-I54</f>
@@ -3713,12 +3720,12 @@
         <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="6" t="str">
+      <c r="F55" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K55,",",J55)</f>
         <v>RES,0603R,820</v>
       </c>
@@ -3750,22 +3757,22 @@
         <v>51</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="6" t="str">
+      <c r="F56" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K56,",",J56)</f>
         <v>RES,0603R,680</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H56" s="8" t="n">
+      <c r="H56" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="I56" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J56" s="1" t="n">
@@ -3790,19 +3797,19 @@
         <v>52</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="6" t="str">
+      <c r="F57" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K57,",",J57)</f>
         <v>RES,0603R,510</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H57" s="7" t="n">
+      <c r="H57" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I57" s="1" t="n">
@@ -3815,7 +3822,7 @@
         <v>35</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S57" s="5" t="n">
         <f aca="false">G57-I57</f>
@@ -3833,22 +3840,22 @@
         <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="6" t="str">
+      <c r="F58" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K58,",",J58)</f>
         <v>RES,0603R,330</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H58" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="10" t="n">
+      <c r="H58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7" t="n">
         <v>2</v>
       </c>
       <c r="J58" s="1" t="n">
@@ -3858,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S58" s="5" t="n">
         <f aca="false">G58-I58</f>
@@ -3876,28 +3883,28 @@
         <v>54</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11" t="n">
+      <c r="H59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S59" s="5" t="n">
         <f aca="false">G59-I59</f>
@@ -3915,34 +3922,34 @@
         <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H60" s="7" t="n">
+      <c r="H60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S60" s="5" t="n">
         <f aca="false">G60-I60</f>
@@ -3960,32 +3967,32 @@
         <v>56</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="6" t="str">
+      <c r="F61" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K61,",",J61)</f>
         <v>CAP,0402C,100nF</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="H61" s="7" t="n">
+      <c r="H61" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="I61" s="8" t="n">
+      <c r="I61" s="7" t="n">
         <v>55</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S61" s="5" t="n">
         <f aca="false">G61-I61</f>
@@ -4003,29 +4010,29 @@
         <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E62" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="6" t="str">
+      <c r="F62" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K62,",",J62)</f>
         <v>RES,0402R,100K</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="8" t="n">
+      <c r="H62" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="S62" s="5" t="n">
         <f aca="false">G62-I62</f>
@@ -4043,32 +4050,32 @@
         <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="6" t="str">
+      <c r="F63" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K63,",",J63)</f>
         <v>RES,0603R,100K</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H63" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="8" t="n">
+      <c r="H63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7" t="n">
         <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S63" s="5" t="n">
         <f aca="false">G63-I63</f>
@@ -4086,22 +4093,22 @@
         <v>59</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="6" t="str">
+      <c r="F64" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K64,",",J64)</f>
         <v>RES,0603R,100</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H64" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8" t="n">
+      <c r="H64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7" t="n">
         <v>6</v>
       </c>
       <c r="J64" s="1" t="n">
@@ -4111,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S64" s="5" t="n">
         <f aca="false">G64-I64</f>
@@ -4129,15 +4136,15 @@
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>245</v>
+        <v>266</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="7" t="n">
+      <c r="H65" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="1" t="n">
@@ -4147,13 +4154,13 @@
         <v>51</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S65" s="5" t="n">
         <f aca="false">G65-I65</f>
@@ -4171,26 +4178,26 @@
         <v>61</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="6" t="str">
+      <c r="F66" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K66,",",J66)</f>
         <v>RES,0603R,47K</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H66" s="7" t="n">
+      <c r="H66" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I66" s="8" t="n">
+      <c r="I66" s="7" t="n">
         <v>9</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>35</v>
@@ -4211,28 +4218,28 @@
         <v>62</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>245</v>
+        <v>270</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H67" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8" t="n">
+      <c r="H67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S67" s="5" t="n">
         <f aca="false">G67-I67</f>
@@ -4250,31 +4257,31 @@
         <v>63</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F68" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H68" s="7" t="n">
+      <c r="H68" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S68" s="5" t="n">
         <f aca="false">G68-I68</f>
@@ -4292,34 +4299,34 @@
         <v>64</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F69" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H69" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8" t="n">
+      <c r="H69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S69" s="5" t="n">
         <f aca="false">G69-I69</f>
@@ -4337,25 +4344,25 @@
         <v>65</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>112</v>
+      <c r="F70" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H70" s="8" t="n">
+      <c r="H70" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I70" s="8" t="n">
+      <c r="I70" s="7" t="n">
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S70" s="5" t="n">
         <f aca="false">G70-I70</f>
@@ -4373,12 +4380,12 @@
         <v>66</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F71" s="6" t="str">
+        <v>282</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K71,",",J71)</f>
         <v>CAP,TAN-B,10uF(25V)</v>
       </c>
@@ -4389,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S71" s="5" t="n">
         <f aca="false">G71-I71</f>
@@ -4410,32 +4417,32 @@
         <v>67</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" s="6" t="str">
+        <v>286</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K72,",",J72)</f>
         <v>CAP,TAN-A,10uF</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H72" s="7" t="n">
+      <c r="H72" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S72" s="5" t="n">
         <f aca="false">G72-I72</f>
@@ -4453,28 +4460,28 @@
         <v>68</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F73" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10" t="n">
+      <c r="H73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7" t="n">
         <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S73" s="5" t="n">
         <f aca="false">G73-I73</f>
@@ -4492,32 +4499,32 @@
         <v>69</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="6" t="str">
+      <c r="F74" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K74,",",J74)</f>
         <v>CAP,0603C,10nF</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H74" s="7" t="n">
+      <c r="H74" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I74" s="8" t="n">
+      <c r="I74" s="7" t="n">
         <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S74" s="5" t="n">
         <f aca="false">G74-I74</f>
@@ -4535,35 +4542,35 @@
         <v>70</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F75" s="6" t="str">
+        <v>297</v>
+      </c>
+      <c r="F75" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K75,",",J75)</f>
         <v>RES,0603R,10K</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="8" t="n">
+      <c r="H75" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S75" s="5" t="n">
         <f aca="false">G75-I75</f>
@@ -4581,38 +4588,38 @@
         <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="6" t="str">
+        <v>299</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K76,",",J76)</f>
         <v>RES,0402R,10K</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H76" s="7" t="n">
+      <c r="H76" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>7</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S76" s="5" t="n">
         <f aca="false">G76-I76</f>
@@ -4630,19 +4637,19 @@
         <v>72</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="6" t="str">
+      <c r="F77" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K77,",",J77)</f>
         <v>RES,0603R,10</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H77" s="8" t="n">
+      <c r="H77" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I77" s="1" t="n">
@@ -4670,26 +4677,26 @@
         <v>73</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="6" t="str">
+      <c r="F78" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K78,",",J78)</f>
         <v>CAP,0603C,8.2pF</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H78" s="8" t="n">
+      <c r="H78" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>28</v>
@@ -4710,28 +4717,28 @@
         <v>74</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>221</v>
+      <c r="F79" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H79" s="8" t="n">
+      <c r="H79" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S79" s="5" t="n">
         <f aca="false">G79-I79</f>
@@ -4749,29 +4756,29 @@
         <v>75</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="6" t="str">
+      <c r="F80" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K80,",",J80)</f>
         <v>CAP,1206C,4.7uF/50V</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H80" s="8" t="n">
+      <c r="H80" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S80" s="5" t="n">
         <f aca="false">G80-I80</f>
@@ -4789,29 +4796,29 @@
         <v>76</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="6" t="str">
+      <c r="F81" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K81,",",J81)</f>
         <v>CAP,1206C,4.7uF/10V</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H81" s="8" t="n">
+      <c r="H81" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="S81" s="5" t="n">
         <f aca="false">G81-I81</f>
@@ -4829,29 +4836,29 @@
         <v>77</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F82" s="6" t="str">
+        <v>313</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K82,",",J82)</f>
         <v>CAP,TAN-A,4.7uF</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H82" s="8" t="n">
+      <c r="H82" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S82" s="5" t="n">
         <f aca="false">G82-I82</f>
@@ -4869,32 +4876,32 @@
         <v>78</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="6" t="str">
+      <c r="F83" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K83,",",J83)</f>
         <v>RES,0603R,4K7</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H83" s="7" t="n">
+      <c r="H83" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="S83" s="5" t="n">
         <f aca="false">G83-I83</f>
@@ -4912,26 +4919,26 @@
         <v>79</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="6" t="str">
+      <c r="F84" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K84,",",J84)</f>
         <v>CAP,0603C,3.0pF</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H84" s="8" t="n">
+      <c r="H84" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>28</v>
@@ -4952,25 +4959,25 @@
         <v>80</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>112</v>
+      <c r="F85" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H85" s="8" t="n">
+      <c r="H85" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="I85" s="8" t="n">
+      <c r="I85" s="7" t="n">
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S85" s="5" t="n">
         <f aca="false">G85-I85</f>
@@ -4988,29 +4995,29 @@
         <v>81</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="6" t="str">
+      <c r="F86" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K86,",",J86)</f>
         <v>CAP,1206C,2.2uF</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H86" s="8" t="n">
+      <c r="H86" s="7" t="n">
         <v>3</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S86" s="5" t="n">
         <f aca="false">G86-I86</f>
@@ -5028,28 +5035,28 @@
         <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>245</v>
+        <v>324</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="8" t="n">
+      <c r="H87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7" t="n">
         <v>2</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="S87" s="5" t="n">
         <f aca="false">G87-I87</f>
@@ -5067,28 +5074,28 @@
         <v>83</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>245</v>
+        <v>327</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H88" s="7" t="n">
+      <c r="H88" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S88" s="5" t="n">
         <f aca="false">G88-I88</f>
@@ -5106,28 +5113,28 @@
         <v>84</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F89" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H89" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" s="8" t="n">
+      <c r="H89" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7" t="n">
         <v>6</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S89" s="5" t="n">
         <f aca="false">G89-I89</f>
@@ -5145,29 +5152,29 @@
         <v>85</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F90" s="6" t="str">
+        <v>333</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F90" s="4" t="str">
         <f aca="false">CONCATENATE("CAP,",K90,",",J90)</f>
         <v>CAP,TAN-A,1uF</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H90" s="8" t="n">
+      <c r="H90" s="7" t="n">
         <v>3</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S90" s="5" t="n">
         <f aca="false">G90-I90</f>
@@ -5185,32 +5192,32 @@
         <v>86</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="6" t="str">
+      <c r="F91" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K91,",",J91)</f>
         <v>RES,0603R,1K5</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H91" s="7" t="n">
+      <c r="H91" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="S91" s="5" t="n">
         <f aca="false">G91-I91</f>
@@ -5228,19 +5235,19 @@
         <v>87</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="6" t="str">
+      <c r="F92" s="4" t="str">
         <f aca="false">CONCATENATE("RES,",K92,",",J92)</f>
         <v>RES,0603R,0</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H92" s="7" t="n">
+      <c r="H92" s="6" t="n">
         <v>14</v>
       </c>
       <c r="I92" s="1" t="n">
@@ -5253,7 +5260,7 @@
         <v>35</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="S92" s="5" t="n">
         <f aca="false">G92-I92</f>
@@ -5261,14 +5268,14 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="6"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="6"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
